--- a/final-project/virtual-cards/test-data.xlsx
+++ b/final-project/virtual-cards/test-data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="163">
   <si>
     <t>Test case ID</t>
   </si>
@@ -209,9 +209,6 @@
     <t>UI should be perfect</t>
   </si>
   <si>
-    <t>It Should show mandatory symbol (*) on mandatory fields.</t>
-  </si>
-  <si>
     <t>2. A successful registration message should show</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>Log In</t>
   </si>
   <si>
-    <t> Text boxes and button should be aligned</t>
-  </si>
-  <si>
     <t>User Login</t>
   </si>
   <si>
@@ -323,9 +317,6 @@
     <t>Clicking signup link takes user to signup page successfully</t>
   </si>
   <si>
-    <t>Mandatory fields in form are marked by red asterisk. Hence, it will be clearly displayed to users.</t>
-  </si>
-  <si>
     <t> no spelling or grammatical error</t>
   </si>
   <si>
@@ -519,6 +510,9 @@
   </si>
   <si>
     <t>Login/ log out/login different accouts</t>
+  </si>
+  <si>
+    <t>mandatory symbol (*) should highlight the required fields.</t>
   </si>
 </sst>
 </file>
@@ -842,10 +836,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -854,14 +845,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,7 +1194,7 @@
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -1211,23 +1205,41 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="F5" s="5" t="s">
-        <v>77</v>
+      <c r="B5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="F6" s="5" t="s">
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>99</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="F7" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="F8" s="38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1267,7 +1279,7 @@
     </row>
     <row r="12" spans="1:16" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="27"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1278,27 +1290,27 @@
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="20" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
-      <c r="B13" s="41"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="18"/>
       <c r="G13" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="27"/>
-      <c r="B14" s="41"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
@@ -1307,7 +1319,7 @@
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
@@ -1315,14 +1327,14 @@
     </row>
     <row r="15" spans="1:16" s="22" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
-      <c r="B15" s="42"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="9"/>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
@@ -1336,7 +1348,7 @@
       <c r="P15" s="20"/>
     </row>
     <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -1347,7 +1359,7 @@
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="20"/>
@@ -1361,14 +1373,14 @@
       <c r="P16" s="31"/>
     </row>
     <row r="17" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B17" s="41"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="15"/>
       <c r="D17" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -1382,14 +1394,14 @@
       <c r="P17" s="20"/>
     </row>
     <row r="18" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="41"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="9"/>
       <c r="D18" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -1403,7 +1415,7 @@
       <c r="P18" s="20"/>
     </row>
     <row r="19" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B19" s="41"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
@@ -1412,7 +1424,7 @@
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1426,35 +1438,35 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B20" s="41"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="15"/>
       <c r="D20" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
     </row>
     <row r="21" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="41"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="15"/>
       <c r="D21" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1464,10 +1476,10 @@
         <v>30</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
@@ -1481,7 +1493,7 @@
       <c r="P22" s="31"/>
     </row>
     <row r="23" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B23" s="41"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="14" t="s">
         <v>27</v>
       </c>
@@ -1489,7 +1501,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
@@ -1504,7 +1516,7 @@
       <c r="P23" s="20"/>
     </row>
     <row r="24" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B24" s="41"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="14" t="s">
         <v>28</v>
       </c>
@@ -1525,7 +1537,7 @@
       <c r="P24" s="20"/>
     </row>
     <row r="25" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="41"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
@@ -1546,7 +1558,7 @@
       <c r="P25" s="32"/>
     </row>
     <row r="26" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B26" s="41"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
@@ -1555,7 +1567,7 @@
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
@@ -1565,7 +1577,7 @@
       <c r="L26" s="31"/>
     </row>
     <row r="27" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="42"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="9"/>
       <c r="D27" s="21" t="s">
         <v>31</v>
@@ -1582,8 +1594,8 @@
       <c r="L27" s="32"/>
     </row>
     <row r="28" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B28" s="43" t="s">
-        <v>129</v>
+      <c r="B28" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>38</v>
@@ -1591,122 +1603,122 @@
       <c r="D28" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="44" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="41"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="9"/>
       <c r="D29" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="32"/>
     </row>
     <row r="30" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B30" s="41"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="44" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="41"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="9"/>
       <c r="D31" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="32"/>
     </row>
     <row r="32" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B32" s="41"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="44" t="s">
         <v>47</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="42"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="9"/>
       <c r="D33" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="40"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="39" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="44" t="s">
         <v>50</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="41"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="9"/>
       <c r="D35" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="40"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="32"/>
     </row>
     <row r="36" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B36" s="41"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="44" t="s">
         <v>53</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="41"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="9"/>
       <c r="D37" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="40"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="20"/>
     </row>
     <row r="38" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B38" s="41"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="7" t="s">
         <v>54</v>
       </c>
@@ -1717,82 +1729,82 @@
         <v>56</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="41"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F39" s="18"/>
     </row>
     <row r="40" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B40" s="41"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F40" s="18"/>
     </row>
     <row r="41" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B41" s="41"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F41" s="18"/>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="41"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="32"/>
     </row>
     <row r="43" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="41"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="44" t="s">
+      <c r="E43" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="42" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="42"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="43"/>
     </row>
     <row r="45" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B45" s="34"/>
       <c r="C45" s="37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="34"/>
@@ -1801,7 +1813,7 @@
     <row r="46" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B46" s="34"/>
       <c r="C46" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="34"/>
@@ -1809,7 +1821,7 @@
     </row>
     <row r="47" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B47" s="34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="18"/>
@@ -1832,10 +1844,10 @@
     </row>
     <row r="50" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="34"/>
@@ -1844,66 +1856,66 @@
     <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B51" s="34"/>
       <c r="C51" s="36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B52" s="34"/>
       <c r="C52" s="36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="34" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B53" s="34"/>
       <c r="C53" s="36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G53" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C54" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" t="s">
         <v>117</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" t="s">
         <v>119</v>
-      </c>
-      <c r="F54" t="s">
-        <v>120</v>
-      </c>
-      <c r="G54" t="s">
-        <v>121</v>
-      </c>
-      <c r="H54" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -1937,173 +1949,173 @@
     </row>
     <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B59" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="F59" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="D60" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="D61" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C62" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="D63" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="D64" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="C65" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D66" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D67" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="C68" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D69" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D70" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="C71" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D72" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D73" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B74" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="F74" s="24" t="s">
         <v>96</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F74" s="24" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F75" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D77" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D78" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="82" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B82" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -2137,101 +2149,96 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C85" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D85" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F85" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E87" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D89" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F89" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F94" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C96" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E96" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E34:E35"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E28:E29"/>
@@ -2239,6 +2246,11 @@
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E34:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/final-project/virtual-cards/test-data.xlsx
+++ b/final-project/virtual-cards/test-data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="172">
   <si>
     <t>Test case ID</t>
   </si>
@@ -513,6 +513,34 @@
   </si>
   <si>
     <t>mandatory symbol (*) should highlight the required fields.</t>
+  </si>
+  <si>
+    <t>Installing</t>
+  </si>
+  <si>
+    <t>Choose language</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>alphabetical anchors work properly</t>
+  </si>
+  <si>
+    <t>notifications</t>
+  </si>
+  <si>
+    <t>English menu
+romanian placeholders</t>
+  </si>
+  <si>
+    <t>the app should remember user details for avoiding filling the same fields all over againin order to obtain new virtual cards</t>
   </si>
 </sst>
 </file>
@@ -782,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -836,7 +864,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -845,17 +876,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,166 +1273,157 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="10" t="s">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="F9" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="F11" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
-      <c r="B12" s="40" t="s">
+    <row r="13" spans="1:16" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+      <c r="B13" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G13" s="28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16" t="s">
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="G13" s="20" t="s">
+      <c r="E14" s="18"/>
+      <c r="G14" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="7" t="s">
+    <row r="15" spans="1:16" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" spans="1:16" s="22" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="18" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:16" s="22" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="30" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B16" s="39" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B17" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29" t="s">
+      <c r="E17" s="29"/>
+      <c r="F17" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-    </row>
-    <row r="17" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B17" s="40"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-    </row>
-    <row r="18" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="40"/>
-      <c r="C18" s="9"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+    </row>
+    <row r="18" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B18" s="41"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -1414,115 +1436,115 @@
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
     </row>
-    <row r="19" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B19" s="40"/>
-      <c r="C19" s="7" t="s">
+    <row r="19" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="41"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+    </row>
+    <row r="20" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B20" s="41"/>
+      <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D20" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29" t="s">
+      <c r="E20" s="29"/>
+      <c r="F20" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B20" s="40"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="18" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B21" s="41"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="40"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B22" s="39" t="s">
+    <row r="22" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="41"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B23" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-    </row>
-    <row r="23" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B23" s="40"/>
-      <c r="C23" s="14" t="s">
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+    </row>
+    <row r="24" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B24" s="41"/>
+      <c r="C24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-    </row>
-    <row r="24" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B24" s="40"/>
-      <c r="C24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
@@ -1536,300 +1558,314 @@
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
     </row>
-    <row r="25" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="40"/>
-      <c r="C25" s="23" t="s">
+    <row r="25" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B25" s="41"/>
+      <c r="C25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+    </row>
+    <row r="26" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="41"/>
+      <c r="C26" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="18" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-    </row>
-    <row r="26" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B26" s="40"/>
-      <c r="C26" s="7" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+    </row>
+    <row r="27" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B27" s="41"/>
+      <c r="C27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D27" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="18" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-    </row>
-    <row r="27" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="41"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="21" t="s">
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+    </row>
+    <row r="28" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="42"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E28" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-    </row>
-    <row r="28" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B28" s="39" t="s">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+    </row>
+    <row r="29" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B29" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E29" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F29" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="40"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="21" t="s">
+    <row r="30" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="41"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="32"/>
-    </row>
-    <row r="30" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B30" s="40"/>
-      <c r="C30" s="7" t="s">
+      <c r="E30" s="40"/>
+      <c r="F30" s="32"/>
+    </row>
+    <row r="31" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B31" s="41"/>
+      <c r="C31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E31" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F31" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="40"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="21" t="s">
+    <row r="32" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="41"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="32"/>
-    </row>
-    <row r="32" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B32" s="40"/>
-      <c r="C32" s="7" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="32"/>
+    </row>
+    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B33" s="41"/>
+      <c r="C33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E33" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F33" s="33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="41"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="21" t="s">
+    <row r="34" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="42"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B34" s="39" t="s">
+      <c r="E34" s="40"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B35" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E35" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F35" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="40"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="21" t="s">
+    <row r="36" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="41"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="45"/>
-      <c r="F35" s="32"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B36" s="40"/>
-      <c r="C36" s="7" t="s">
+      <c r="E36" s="40"/>
+      <c r="F36" s="32"/>
+    </row>
+    <row r="37" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B37" s="41"/>
+      <c r="C37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D37" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E37" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F37" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="40"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="21" t="s">
+    <row r="38" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="41"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B38" s="40"/>
-      <c r="C38" s="7" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B39" s="41"/>
+      <c r="C39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D39" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E39" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F39" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="40"/>
-      <c r="C39" s="9" t="s">
+    <row r="40" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="41"/>
+      <c r="C40" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D40" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E40" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B40" s="40"/>
-      <c r="C40" s="14" t="s">
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B41" s="41"/>
+      <c r="C41" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B41" s="40"/>
-      <c r="C41" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B42" s="41"/>
+      <c r="C42" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="40"/>
-      <c r="C42" s="9" t="s">
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="41"/>
+      <c r="C43" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="32"/>
-    </row>
-    <row r="43" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="40"/>
-      <c r="C43" s="7" t="s">
+      <c r="E43" s="26"/>
+      <c r="F43" s="32"/>
+    </row>
+    <row r="44" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="41"/>
+      <c r="C44" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D44" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E44" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F44" s="44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="41"/>
-      <c r="C44" s="9" t="s">
+    <row r="45" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="42"/>
+      <c r="C45" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D45" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="45"/>
-      <c r="F44" s="43"/>
-    </row>
-    <row r="45" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B45" s="34"/>
-      <c r="C45" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="35"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="45"/>
     </row>
     <row r="46" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B46" s="34"/>
-      <c r="C46" s="20" t="s">
-        <v>140</v>
+      <c r="C46" s="37" t="s">
+        <v>139</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="34"/>
       <c r="F46" s="35"/>
     </row>
     <row r="47" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B47" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="20"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="D47" s="18"/>
       <c r="E47" s="34"/>
       <c r="F47" s="35"/>
     </row>
     <row r="48" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B48" s="34"/>
+      <c r="B48" s="34" t="s">
+        <v>160</v>
+      </c>
       <c r="C48" s="20"/>
       <c r="D48" s="18"/>
       <c r="E48" s="34"/>
@@ -1842,415 +1878,449 @@
       <c r="E49" s="34"/>
       <c r="F49" s="35"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>111</v>
-      </c>
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="B50" s="34"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="18"/>
       <c r="E50" s="34"/>
       <c r="F50" s="35"/>
     </row>
-    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="B51" s="34"/>
-      <c r="C51" s="36" t="s">
-        <v>112</v>
+    <row r="51" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="D51" s="18"/>
-      <c r="E51" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>122</v>
-      </c>
+      <c r="E51" s="34"/>
+      <c r="F51" s="35"/>
     </row>
     <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B52" s="34"/>
       <c r="C52" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="18"/>
-      <c r="E52" s="34" t="s">
-        <v>123</v>
+      <c r="E52" t="s">
+        <v>125</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B53" s="34"/>
       <c r="C53" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="B54" s="34"/>
+      <c r="C54" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F54" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C54" s="36" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C55" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>116</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>117</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G55" t="s">
         <v>118</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H55" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="10" t="s">
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B58" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B59" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D59" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E59" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="B59" s="5" t="s">
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="B60" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F60" s="5" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="D60" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="D61" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="D62" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="C62" s="5" t="s">
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="C63" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="D63" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="D64" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="D65" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="C65" s="5" t="s">
+    <row r="66" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="C66" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F66" s="5" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="D66" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D67" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="D68" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="C68" s="5" t="s">
+    <row r="69" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="C69" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="D69" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D70" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="D71" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="C71" s="5" t="s">
+    <row r="72" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="C72" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="D72" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D73" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="D74" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B74" s="5" t="s">
+    <row r="75" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B75" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F74" s="24" t="s">
+      <c r="F75" s="24" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B75" t="s">
-        <v>98</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="D77" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D78" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="D79" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B79" t="s">
+    <row r="80" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B82" s="10" t="s">
+    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B83" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B84" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D84" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E84" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>142</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>148</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>144</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F86" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D86" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>146</v>
-      </c>
-      <c r="E87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
         <v>143</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>144</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F90" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D90" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>150</v>
-      </c>
-      <c r="E92" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
+        <v>150</v>
+      </c>
+      <c r="E93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
         <v>152</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
         <v>156</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>154</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E97" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" t="s">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>164</v>
+      </c>
+      <c r="D106" t="s">
+        <v>165</v>
+      </c>
+      <c r="E106" t="s">
+        <v>165</v>
+      </c>
+      <c r="F106" t="s">
+        <v>167</v>
+      </c>
+      <c r="G106" s="46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B29:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/final-project/virtual-cards/test-data.xlsx
+++ b/final-project/virtual-cards/test-data.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corina\Desktop\cursuri\siit-testing\final-project\virtual-cards\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -864,10 +859,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,17 +871,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,7 +943,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -983,7 +978,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1160,7 +1155,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1171,30 +1166,30 @@
   <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>74</v>
       </c>
@@ -1235,7 +1230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>93</v>
       </c>
@@ -1249,7 +1244,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>98</v>
       </c>
@@ -1263,27 +1258,27 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F7" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F8" s="38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F9" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10" s="33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1286,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" s="41" t="s">
         <v>12</v>
@@ -1339,7 +1334,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="41"/>
       <c r="C14" s="15"/>
@@ -1351,7 +1346,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="41"/>
       <c r="C15" s="7" t="s">
@@ -1368,7 +1363,7 @@
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:16" s="22" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="42"/>
       <c r="C16" s="9"/>
@@ -1390,8 +1385,8 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B17" s="43" t="s">
+    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -1415,7 +1410,7 @@
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
     </row>
-    <row r="18" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="41"/>
       <c r="C18" s="15"/>
       <c r="D18" s="18" t="s">
@@ -1436,7 +1431,7 @@
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
     </row>
-    <row r="19" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="41"/>
       <c r="C19" s="9"/>
       <c r="D19" s="18" t="s">
@@ -1457,7 +1452,7 @@
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
     </row>
-    <row r="20" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B20" s="41"/>
       <c r="C20" s="7" t="s">
         <v>23</v>
@@ -1480,7 +1475,7 @@
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
     </row>
-    <row r="21" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B21" s="41"/>
       <c r="C21" s="15"/>
       <c r="D21" s="18" t="s">
@@ -1494,7 +1489,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="41"/>
       <c r="C22" s="15"/>
       <c r="D22" s="30" t="s">
@@ -1508,8 +1503,8 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B23" s="43" t="s">
+    <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1535,7 +1530,7 @@
       <c r="O23" s="31"/>
       <c r="P23" s="31"/>
     </row>
-    <row r="24" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B24" s="41"/>
       <c r="C24" s="14" t="s">
         <v>27</v>
@@ -1558,7 +1553,7 @@
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
     </row>
-    <row r="25" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B25" s="41"/>
       <c r="C25" s="14" t="s">
         <v>28</v>
@@ -1579,7 +1574,7 @@
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
     </row>
-    <row r="26" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="41"/>
       <c r="C26" s="23" t="s">
         <v>29</v>
@@ -1600,7 +1595,7 @@
       <c r="O26" s="32"/>
       <c r="P26" s="32"/>
     </row>
-    <row r="27" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B27" s="41"/>
       <c r="C27" s="7" t="s">
         <v>35</v>
@@ -1619,7 +1614,7 @@
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
     </row>
-    <row r="28" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="42"/>
       <c r="C28" s="9"/>
       <c r="D28" s="21" t="s">
@@ -1636,8 +1631,8 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B29" s="43" t="s">
+    <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="40" t="s">
         <v>126</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1646,23 +1641,23 @@
       <c r="D29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="45" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="41"/>
       <c r="C30" s="9"/>
       <c r="D30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B31" s="41"/>
       <c r="C31" s="7" t="s">
         <v>42</v>
@@ -1670,23 +1665,23 @@
       <c r="D31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="45" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="41"/>
       <c r="C32" s="9"/>
       <c r="D32" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="40"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="32"/>
     </row>
-    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B33" s="41"/>
       <c r="C33" s="7" t="s">
         <v>45</v>
@@ -1694,24 +1689,24 @@
       <c r="D33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="45" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="42"/>
       <c r="C34" s="9"/>
       <c r="D34" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="40"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B35" s="43" t="s">
+    <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="40" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -1720,23 +1715,23 @@
       <c r="D35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="45" t="s">
         <v>50</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="41"/>
       <c r="C36" s="9"/>
       <c r="D36" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="40"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="32"/>
     </row>
-    <row r="37" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B37" s="41"/>
       <c r="C37" s="7" t="s">
         <v>51</v>
@@ -1744,23 +1739,23 @@
       <c r="D37" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="45" t="s">
         <v>53</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="41"/>
       <c r="C38" s="9"/>
       <c r="D38" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="40"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="20"/>
     </row>
-    <row r="39" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B39" s="41"/>
       <c r="C39" s="7" t="s">
         <v>54</v>
@@ -1775,7 +1770,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="41"/>
       <c r="C40" s="9" t="s">
         <v>131</v>
@@ -1788,7 +1783,7 @@
       </c>
       <c r="F40" s="18"/>
     </row>
-    <row r="41" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B41" s="41"/>
       <c r="C41" s="14" t="s">
         <v>132</v>
@@ -1799,7 +1794,7 @@
       </c>
       <c r="F41" s="18"/>
     </row>
-    <row r="42" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B42" s="41"/>
       <c r="C42" s="14" t="s">
         <v>138</v>
@@ -1810,7 +1805,7 @@
       </c>
       <c r="F42" s="18"/>
     </row>
-    <row r="43" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="41"/>
       <c r="C43" s="9" t="s">
         <v>136</v>
@@ -1818,7 +1813,7 @@
       <c r="E43" s="26"/>
       <c r="F43" s="32"/>
     </row>
-    <row r="44" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="41"/>
       <c r="C44" s="7" t="s">
         <v>57</v>
@@ -1826,14 +1821,14 @@
       <c r="D44" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="42"/>
       <c r="C45" s="9" t="s">
         <v>129</v>
@@ -1841,10 +1836,10 @@
       <c r="D45" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="45"/>
-    </row>
-    <row r="46" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="E45" s="46"/>
+      <c r="F45" s="44"/>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B46" s="34"/>
       <c r="C46" s="37" t="s">
         <v>139</v>
@@ -1853,7 +1848,7 @@
       <c r="E46" s="34"/>
       <c r="F46" s="35"/>
     </row>
-    <row r="47" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B47" s="34"/>
       <c r="C47" s="20" t="s">
         <v>140</v>
@@ -1862,7 +1857,7 @@
       <c r="E47" s="34"/>
       <c r="F47" s="35"/>
     </row>
-    <row r="48" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B48" s="34" t="s">
         <v>160</v>
       </c>
@@ -1871,21 +1866,21 @@
       <c r="E48" s="34"/>
       <c r="F48" s="35"/>
     </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B49" s="34"/>
       <c r="C49" s="20"/>
       <c r="D49" s="18"/>
       <c r="E49" s="34"/>
       <c r="F49" s="35"/>
     </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B50" s="34"/>
       <c r="C50" s="20"/>
       <c r="D50" s="18"/>
       <c r="E50" s="34"/>
       <c r="F50" s="35"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="34" t="s">
         <v>110</v>
       </c>
@@ -1896,7 +1891,7 @@
       <c r="E51" s="34"/>
       <c r="F51" s="35"/>
     </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B52" s="34"/>
       <c r="C52" s="36" t="s">
         <v>112</v>
@@ -1909,7 +1904,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B53" s="34"/>
       <c r="C53" s="36" t="s">
         <v>113</v>
@@ -1922,7 +1917,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B54" s="34"/>
       <c r="C54" s="36" t="s">
         <v>115</v>
@@ -1938,7 +1933,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C55" s="36" t="s">
         <v>114</v>
       </c>
@@ -1955,13 +1950,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B58" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +1985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
         <v>76</v>
       </c>
@@ -2004,17 +1999,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D61" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D62" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C63" s="5" t="s">
         <v>82</v>
       </c>
@@ -2025,17 +2020,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D64" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D65" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C66" s="5" t="s">
         <v>85</v>
       </c>
@@ -2046,17 +2041,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D67" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D68" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C69" s="5" t="s">
         <v>87</v>
       </c>
@@ -2067,17 +2062,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D70" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D71" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C72" s="5" t="s">
         <v>90</v>
       </c>
@@ -2088,17 +2083,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D73" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D74" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B75" s="5" t="s">
         <v>93</v>
       </c>
@@ -2112,7 +2107,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>98</v>
       </c>
@@ -2126,7 +2121,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>102</v>
       </c>
@@ -2137,17 +2132,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D78" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D79" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>161</v>
       </c>
@@ -2155,13 +2150,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B83" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -2190,7 +2185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>142</v>
       </c>
@@ -2204,12 +2199,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>146</v>
       </c>
@@ -2217,12 +2212,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>143</v>
       </c>
@@ -2233,17 +2228,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>150</v>
       </c>
@@ -2251,12 +2246,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>152</v>
       </c>
@@ -2264,7 +2259,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>156</v>
       </c>
@@ -2275,17 +2270,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>164</v>
       </c>
@@ -2298,22 +2293,17 @@
       <c r="F106" t="s">
         <v>167</v>
       </c>
-      <c r="G106" s="46" t="s">
+      <c r="G106" s="39" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E35:E36"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E29:E30"/>
@@ -2321,6 +2311,11 @@
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E35:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/final-project/virtual-cards/test-data.xlsx
+++ b/final-project/virtual-cards/test-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corina\Desktop\cursuri\siit-testing\final-project\virtual-cards\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="204">
   <si>
     <t>Test case ID</t>
   </si>
@@ -536,13 +541,109 @@
   </si>
   <si>
     <t>the app should remember user details for avoiding filling the same fields all over againin order to obtain new virtual cards</t>
+  </si>
+  <si>
+    <t>Verify that application logo with Application Name is present inapplication manager and user canselect it.</t>
+  </si>
+  <si>
+    <t>Related products are returned as a result.</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>The content is in Romanian</t>
+  </si>
+  <si>
+    <t>Romana</t>
+  </si>
+  <si>
+    <t>The content is in English</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>error message: please select a language</t>
+  </si>
+  <si>
+    <t>Choose the behavior of Choosing Language feature</t>
+  </si>
+  <si>
+    <t>Verify the behavior of applicationwhen there is Network problemand user is performing operationsfor data call</t>
+  </si>
+  <si>
+    <t>device to launch the app.3.Observe the application launchIn the timeline defined</t>
+  </si>
+  <si>
+    <t>select it 2. “Press a button” on the</t>
+  </si>
+  <si>
+    <t>1. Find the application icon and</t>
+  </si>
+  <si>
+    <t>The application should not consumebattery excessively.</t>
+  </si>
+  <si>
+    <t>Verify that application does notconsume battery excessively.</t>
+  </si>
+  <si>
+    <t>Clear key should navigate the user toprevious screen.</t>
+  </si>
+  <si>
+    <t>Verify that clear key shouldnavigate the user to previousscreen</t>
+  </si>
+  <si>
+    <t>Application logo with Applicationname should be present in applicationmanager and user can select it.</t>
+  </si>
+  <si>
+    <t>User should be able to resume backfrom the same point after reading theSMS.</t>
+  </si>
+  <si>
+    <t>Verify that user can resume backfrom the same point after readingthe SMS.</t>
+  </si>
+  <si>
+    <t>User should be able to get SMS alertwhen application is running.</t>
+  </si>
+  <si>
+    <t>Verify that user can get SMS alertwhen application is running.</t>
+  </si>
+  <si>
+    <t>User should be able to establish aVoice call in case when applicationdata call is running in background.</t>
+  </si>
+  <si>
+    <t>Verify that user can establish aVoice call in case whenapplication data call is running inbackground.</t>
+  </si>
+  <si>
+    <t>User should be able to reject theVoice call at the time whenapplication is running and can resumeback in application from the samepoint.</t>
+  </si>
+  <si>
+    <t>Verify that user can reject theVoice call at the time whenapplication is running and canresume back in application fromthe same point</t>
+  </si>
+  <si>
+    <t>User should be able to accept Voicecall at the time when application isrunning and can resume back inapplication from the same point.</t>
+  </si>
+  <si>
+    <t>Verify that user can accept Voicecall at the time when application isrunning and can resume back inapplication from the same point.</t>
+  </si>
+  <si>
+    <t>User should be able to establish datacall when Network is back in action</t>
+  </si>
+  <si>
+    <t>Verify that user is able toestablish data call when Networkis back in action.</t>
+  </si>
+  <si>
+    <t>User should get proper error message like “Network error. Pleasetry after some time”</t>
+  </si>
+  <si>
+    <t>Verify that user is able toestablish data call when Networkis back in action</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +676,28 @@
       <color rgb="FF444444"/>
       <name val="Open Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="4">
@@ -805,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -862,7 +985,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -871,17 +1019,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,7 +1315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1163,33 +1323,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C4" s="5" t="s">
         <v>74</v>
       </c>
@@ -1230,7 +1390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>93</v>
       </c>
@@ -1244,7 +1404,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>98</v>
       </c>
@@ -1258,27 +1418,30 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="C7" s="40" t="s">
+        <v>172</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="F8" s="38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="F9" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F10" s="33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1449,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,9 +1478,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="27"/>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="50" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1334,9 +1497,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
-      <c r="B14" s="41"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16" t="s">
         <v>15</v>
@@ -1346,9 +1509,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
-      <c r="B15" s="41"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1363,9 +1526,9 @@
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:16" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="22" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
-      <c r="B16" s="42"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="9"/>
       <c r="D16" s="18" t="s">
         <v>15</v>
@@ -1385,8 +1548,8 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="40" t="s">
+    <row r="17" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B17" s="52" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -1410,8 +1573,8 @@
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
     </row>
-    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
+    <row r="18" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B18" s="50"/>
       <c r="C18" s="15"/>
       <c r="D18" s="18" t="s">
         <v>21</v>
@@ -1431,8 +1594,8 @@
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
     </row>
-    <row r="19" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41"/>
+    <row r="19" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="50"/>
       <c r="C19" s="9"/>
       <c r="D19" s="18" t="s">
         <v>22</v>
@@ -1452,8 +1615,8 @@
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
     </row>
-    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
+    <row r="20" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B20" s="50"/>
       <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
@@ -1475,8 +1638,8 @@
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="41"/>
+    <row r="21" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B21" s="50"/>
       <c r="C21" s="15"/>
       <c r="D21" s="18" t="s">
         <v>21</v>
@@ -1489,8 +1652,8 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="41"/>
+    <row r="22" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="50"/>
       <c r="C22" s="15"/>
       <c r="D22" s="30" t="s">
         <v>22</v>
@@ -1503,8 +1666,8 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="40" t="s">
+    <row r="23" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B23" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1530,8 +1693,8 @@
       <c r="O23" s="31"/>
       <c r="P23" s="31"/>
     </row>
-    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="41"/>
+    <row r="24" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B24" s="50"/>
       <c r="C24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1553,8 +1716,8 @@
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
     </row>
-    <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="41"/>
+    <row r="25" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B25" s="50"/>
       <c r="C25" s="14" t="s">
         <v>28</v>
       </c>
@@ -1574,8 +1737,8 @@
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
     </row>
-    <row r="26" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="41"/>
+    <row r="26" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="50"/>
       <c r="C26" s="23" t="s">
         <v>29</v>
       </c>
@@ -1595,8 +1758,8 @@
       <c r="O26" s="32"/>
       <c r="P26" s="32"/>
     </row>
-    <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
+    <row r="27" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B27" s="50"/>
       <c r="C27" s="7" t="s">
         <v>35</v>
       </c>
@@ -1614,8 +1777,8 @@
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
     </row>
-    <row r="28" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="42"/>
+    <row r="28" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="51"/>
       <c r="C28" s="9"/>
       <c r="D28" s="21" t="s">
         <v>31</v>
@@ -1631,8 +1794,8 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="40" t="s">
+    <row r="29" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B29" s="52" t="s">
         <v>126</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1641,72 +1804,72 @@
       <c r="D29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="48" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="41"/>
+    <row r="30" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="50"/>
       <c r="C30" s="9"/>
       <c r="D30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="46"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="41"/>
+    <row r="31" spans="2:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="B31" s="50"/>
       <c r="C31" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="41"/>
+    <row r="32" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="50"/>
       <c r="C32" s="9"/>
       <c r="D32" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="46"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="32"/>
     </row>
-    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="41"/>
+    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B33" s="50"/>
       <c r="C33" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="48" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="42"/>
+    <row r="34" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="51"/>
       <c r="C34" s="9"/>
       <c r="D34" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="46"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="40" t="s">
+    <row r="35" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B35" s="52" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -1715,48 +1878,48 @@
       <c r="D35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="48" t="s">
         <v>50</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="41"/>
+    <row r="36" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="50"/>
       <c r="C36" s="9"/>
       <c r="D36" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="46"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="32"/>
     </row>
-    <row r="37" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="41"/>
+    <row r="37" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B37" s="50"/>
       <c r="C37" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="48" t="s">
         <v>53</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="41"/>
+    <row r="38" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="50"/>
       <c r="C38" s="9"/>
       <c r="D38" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="46"/>
+      <c r="E38" s="49"/>
       <c r="F38" s="20"/>
     </row>
-    <row r="39" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="41"/>
+    <row r="39" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B39" s="50"/>
       <c r="C39" s="7" t="s">
         <v>54</v>
       </c>
@@ -1770,8 +1933,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="41"/>
+    <row r="40" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="50"/>
       <c r="C40" s="9" t="s">
         <v>131</v>
       </c>
@@ -1783,8 +1946,8 @@
       </c>
       <c r="F40" s="18"/>
     </row>
-    <row r="41" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="41"/>
+    <row r="41" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B41" s="50"/>
       <c r="C41" s="14" t="s">
         <v>132</v>
       </c>
@@ -1794,8 +1957,8 @@
       </c>
       <c r="F41" s="18"/>
     </row>
-    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="41"/>
+    <row r="42" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B42" s="50"/>
       <c r="C42" s="14" t="s">
         <v>138</v>
       </c>
@@ -1805,41 +1968,41 @@
       </c>
       <c r="F42" s="18"/>
     </row>
-    <row r="43" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="41"/>
+    <row r="43" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="50"/>
       <c r="C43" s="9" t="s">
         <v>136</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="32"/>
     </row>
-    <row r="44" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="41"/>
+    <row r="44" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="50"/>
       <c r="C44" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="43" t="s">
+      <c r="F44" s="53" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="42"/>
+    <row r="45" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="51"/>
       <c r="C45" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="46"/>
-      <c r="F45" s="44"/>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="E45" s="49"/>
+      <c r="F45" s="54"/>
+    </row>
+    <row r="46" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B46" s="34"/>
       <c r="C46" s="37" t="s">
         <v>139</v>
@@ -1848,7 +2011,7 @@
       <c r="E46" s="34"/>
       <c r="F46" s="35"/>
     </row>
-    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B47" s="34"/>
       <c r="C47" s="20" t="s">
         <v>140</v>
@@ -1857,7 +2020,7 @@
       <c r="E47" s="34"/>
       <c r="F47" s="35"/>
     </row>
-    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B48" s="34" t="s">
         <v>160</v>
       </c>
@@ -1866,21 +2029,21 @@
       <c r="E48" s="34"/>
       <c r="F48" s="35"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B49" s="34"/>
       <c r="C49" s="20"/>
       <c r="D49" s="18"/>
       <c r="E49" s="34"/>
       <c r="F49" s="35"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B50" s="34"/>
       <c r="C50" s="20"/>
       <c r="D50" s="18"/>
       <c r="E50" s="34"/>
       <c r="F50" s="35"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="34" t="s">
         <v>110</v>
       </c>
@@ -1891,7 +2054,7 @@
       <c r="E51" s="34"/>
       <c r="F51" s="35"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B52" s="34"/>
       <c r="C52" s="36" t="s">
         <v>112</v>
@@ -1904,7 +2067,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B53" s="34"/>
       <c r="C53" s="36" t="s">
         <v>113</v>
@@ -1917,7 +2080,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B54" s="34"/>
       <c r="C54" s="36" t="s">
         <v>115</v>
@@ -1933,7 +2096,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C55" s="36" t="s">
         <v>114</v>
       </c>
@@ -1950,13 +2113,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -1985,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B60" s="5" t="s">
         <v>76</v>
       </c>
@@ -1999,17 +2162,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="D61" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="D62" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="C63" s="5" t="s">
         <v>82</v>
       </c>
@@ -2020,17 +2183,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="D64" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D65" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="C66" s="5" t="s">
         <v>85</v>
       </c>
@@ -2041,17 +2204,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D67" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D68" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="C69" s="5" t="s">
         <v>87</v>
       </c>
@@ -2062,17 +2225,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D70" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D71" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="C72" s="5" t="s">
         <v>90</v>
       </c>
@@ -2083,17 +2246,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D73" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D74" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B75" s="5" t="s">
         <v>93</v>
       </c>
@@ -2107,7 +2270,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>98</v>
       </c>
@@ -2121,7 +2284,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>102</v>
       </c>
@@ -2132,17 +2295,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D78" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="D79" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" ht="15" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>161</v>
       </c>
@@ -2150,13 +2313,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B83" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -2185,7 +2348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>142</v>
       </c>
@@ -2199,12 +2362,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>146</v>
       </c>
@@ -2212,12 +2375,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>143</v>
       </c>
@@ -2228,17 +2391,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>150</v>
       </c>
@@ -2246,12 +2409,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>152</v>
       </c>
@@ -2259,7 +2422,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>156</v>
       </c>
@@ -2270,17 +2433,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>164</v>
       </c>
@@ -2297,13 +2460,304 @@
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
         <v>166</v>
       </c>
     </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="43"/>
+      <c r="C109" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D109" s="45"/>
+      <c r="E109" s="44"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C110" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D110" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" s="44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="43"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E111" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="43"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E112" s="44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B113" s="43"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="41"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C114" s="36"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B118" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C118" s="41"/>
+      <c r="D118" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="55"/>
+      <c r="K118" s="55"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B119" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" s="41"/>
+      <c r="D119" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E119" s="55"/>
+      <c r="F119" s="55"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="55"/>
+      <c r="I119" s="55"/>
+      <c r="J119" s="55"/>
+      <c r="K119" s="55"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B120" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" s="56"/>
+      <c r="D120" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E120" s="55"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="55"/>
+      <c r="J120" s="55"/>
+      <c r="K120" s="55"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B121" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="56"/>
+      <c r="D121" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="55"/>
+      <c r="J121" s="55"/>
+      <c r="K121" s="55"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B122" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C122" s="56"/>
+      <c r="D122" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E122" s="55"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B123" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C123" s="56"/>
+      <c r="D123" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E123" s="55"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="55"/>
+      <c r="J123" s="55"/>
+      <c r="K123" s="55"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B124" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C124" s="56"/>
+      <c r="D124" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E124" s="55"/>
+      <c r="F124" s="55"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="55"/>
+      <c r="K124" s="55"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B125" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="56"/>
+      <c r="D125" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E125" s="55"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="55"/>
+      <c r="I125" s="55"/>
+      <c r="J125" s="55"/>
+      <c r="K125" s="55"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B126" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C126" s="56"/>
+      <c r="D126" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E126" s="55"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="55"/>
+      <c r="K126" s="55"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B127" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" s="56"/>
+      <c r="D127" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="E127" s="55"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="55"/>
+      <c r="I127" s="55"/>
+      <c r="J127" s="55"/>
+      <c r="K127" s="55"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B128" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" s="56"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="55"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="55"/>
+      <c r="I128" s="55"/>
+      <c r="J128" s="55"/>
+      <c r="K128" s="55"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B129" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C129" s="56"/>
+      <c r="D129" s="56"/>
+      <c r="E129" s="55"/>
+      <c r="F129" s="55"/>
+      <c r="G129" s="55"/>
+      <c r="H129" s="55"/>
+      <c r="I129" s="55"/>
+      <c r="J129" s="55"/>
+      <c r="K129" s="55"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B130" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C130" s="56"/>
+      <c r="D130" s="56"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="55"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="55"/>
+      <c r="I130" s="55"/>
+      <c r="J130" s="55"/>
+      <c r="K130" s="55"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B131" s="55"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="55"/>
+      <c r="I131" s="55"/>
+      <c r="J131" s="55"/>
+      <c r="K131" s="55"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B132" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C132" s="56"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="55"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="55"/>
+      <c r="I132" s="55"/>
+      <c r="J132" s="55"/>
+      <c r="K132" s="55"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E35:E36"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E29:E30"/>
@@ -2311,11 +2765,6 @@
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E35:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/final-project/virtual-cards/test-data.xlsx
+++ b/final-project/virtual-cards/test-data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corina\Desktop\cursuri\siit-testing\final-project\virtual-cards\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1007,27 +1002,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,6 +1016,27 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1315,7 +1310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1325,31 +1320,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>74</v>
       </c>
@@ -1390,7 +1385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>93</v>
       </c>
@@ -1404,7 +1399,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>98</v>
       </c>
@@ -1418,7 +1413,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C7" s="40" t="s">
         <v>172</v>
       </c>
@@ -1426,22 +1421,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="F8" s="38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F9" s="33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10" s="33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1449,7 +1444,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1478,9 +1473,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1497,9 +1492,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16" t="s">
         <v>15</v>
@@ -1509,9 +1504,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
-      <c r="B15" s="50"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1526,9 +1521,9 @@
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:16" s="22" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="9"/>
       <c r="D16" s="18" t="s">
         <v>15</v>
@@ -1548,8 +1543,8 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B17" s="52" t="s">
+    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="53" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -1573,8 +1568,8 @@
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
     </row>
-    <row r="18" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B18" s="50"/>
+    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="54"/>
       <c r="C18" s="15"/>
       <c r="D18" s="18" t="s">
         <v>21</v>
@@ -1594,8 +1589,8 @@
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
     </row>
-    <row r="19" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="50"/>
+    <row r="19" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="54"/>
       <c r="C19" s="9"/>
       <c r="D19" s="18" t="s">
         <v>22</v>
@@ -1615,8 +1610,8 @@
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
     </row>
-    <row r="20" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B20" s="50"/>
+    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="54"/>
       <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1633,8 @@
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
     </row>
-    <row r="21" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B21" s="50"/>
+    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="54"/>
       <c r="C21" s="15"/>
       <c r="D21" s="18" t="s">
         <v>21</v>
@@ -1652,8 +1647,8 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="50"/>
+    <row r="22" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="54"/>
       <c r="C22" s="15"/>
       <c r="D22" s="30" t="s">
         <v>22</v>
@@ -1666,8 +1661,8 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B23" s="52" t="s">
+    <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="53" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1693,8 +1688,8 @@
       <c r="O23" s="31"/>
       <c r="P23" s="31"/>
     </row>
-    <row r="24" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B24" s="50"/>
+    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="54"/>
       <c r="C24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1716,8 +1711,8 @@
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
     </row>
-    <row r="25" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B25" s="50"/>
+    <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="54"/>
       <c r="C25" s="14" t="s">
         <v>28</v>
       </c>
@@ -1737,8 +1732,8 @@
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
     </row>
-    <row r="26" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="50"/>
+    <row r="26" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="54"/>
       <c r="C26" s="23" t="s">
         <v>29</v>
       </c>
@@ -1758,8 +1753,8 @@
       <c r="O26" s="32"/>
       <c r="P26" s="32"/>
     </row>
-    <row r="27" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B27" s="50"/>
+    <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="54"/>
       <c r="C27" s="7" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1772,8 @@
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
     </row>
-    <row r="28" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="51"/>
+    <row r="28" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="55"/>
       <c r="C28" s="9"/>
       <c r="D28" s="21" t="s">
         <v>31</v>
@@ -1794,8 +1789,8 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B29" s="52" t="s">
+    <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="53" t="s">
         <v>126</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1804,72 +1799,72 @@
       <c r="D29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="50"/>
+    <row r="30" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="54"/>
       <c r="C30" s="9"/>
       <c r="D30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="49"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="2:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="B31" s="50"/>
+    <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="54"/>
       <c r="C31" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="58" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="50"/>
+    <row r="32" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="54"/>
       <c r="C32" s="9"/>
       <c r="D32" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="49"/>
+      <c r="E32" s="59"/>
       <c r="F32" s="32"/>
     </row>
-    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B33" s="50"/>
+    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="54"/>
       <c r="C33" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="58" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="51"/>
+    <row r="34" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="55"/>
       <c r="C34" s="9"/>
       <c r="D34" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="49"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B35" s="52" t="s">
+    <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="53" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -1878,48 +1873,48 @@
       <c r="D35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="58" t="s">
         <v>50</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="50"/>
+    <row r="36" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="54"/>
       <c r="C36" s="9"/>
       <c r="D36" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="49"/>
+      <c r="E36" s="59"/>
       <c r="F36" s="32"/>
     </row>
-    <row r="37" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B37" s="50"/>
+    <row r="37" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="54"/>
       <c r="C37" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="E37" s="58" t="s">
         <v>53</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="50"/>
+    <row r="38" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="54"/>
       <c r="C38" s="9"/>
       <c r="D38" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="49"/>
+      <c r="E38" s="59"/>
       <c r="F38" s="20"/>
     </row>
-    <row r="39" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B39" s="50"/>
+    <row r="39" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="54"/>
       <c r="C39" s="7" t="s">
         <v>54</v>
       </c>
@@ -1933,8 +1928,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="50"/>
+    <row r="40" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="54"/>
       <c r="C40" s="9" t="s">
         <v>131</v>
       </c>
@@ -1946,8 +1941,8 @@
       </c>
       <c r="F40" s="18"/>
     </row>
-    <row r="41" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B41" s="50"/>
+    <row r="41" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="54"/>
       <c r="C41" s="14" t="s">
         <v>132</v>
       </c>
@@ -1957,8 +1952,8 @@
       </c>
       <c r="F41" s="18"/>
     </row>
-    <row r="42" spans="2:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B42" s="50"/>
+    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="54"/>
       <c r="C42" s="14" t="s">
         <v>138</v>
       </c>
@@ -1968,41 +1963,41 @@
       </c>
       <c r="F42" s="18"/>
     </row>
-    <row r="43" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="50"/>
+    <row r="43" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="54"/>
       <c r="C43" s="9" t="s">
         <v>136</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="32"/>
     </row>
-    <row r="44" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="50"/>
+    <row r="44" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="54"/>
       <c r="C44" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="53" t="s">
+      <c r="F44" s="56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="51"/>
+    <row r="45" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="55"/>
       <c r="C45" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="54"/>
-    </row>
-    <row r="46" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="E45" s="59"/>
+      <c r="F45" s="57"/>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B46" s="34"/>
       <c r="C46" s="37" t="s">
         <v>139</v>
@@ -2011,7 +2006,7 @@
       <c r="E46" s="34"/>
       <c r="F46" s="35"/>
     </row>
-    <row r="47" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B47" s="34"/>
       <c r="C47" s="20" t="s">
         <v>140</v>
@@ -2020,7 +2015,7 @@
       <c r="E47" s="34"/>
       <c r="F47" s="35"/>
     </row>
-    <row r="48" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B48" s="34" t="s">
         <v>160</v>
       </c>
@@ -2029,21 +2024,21 @@
       <c r="E48" s="34"/>
       <c r="F48" s="35"/>
     </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B49" s="34"/>
       <c r="C49" s="20"/>
       <c r="D49" s="18"/>
       <c r="E49" s="34"/>
       <c r="F49" s="35"/>
     </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B50" s="34"/>
       <c r="C50" s="20"/>
       <c r="D50" s="18"/>
       <c r="E50" s="34"/>
       <c r="F50" s="35"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="34" t="s">
         <v>110</v>
       </c>
@@ -2054,7 +2049,7 @@
       <c r="E51" s="34"/>
       <c r="F51" s="35"/>
     </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B52" s="34"/>
       <c r="C52" s="36" t="s">
         <v>112</v>
@@ -2067,7 +2062,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B53" s="34"/>
       <c r="C53" s="36" t="s">
         <v>113</v>
@@ -2080,7 +2075,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B54" s="34"/>
       <c r="C54" s="36" t="s">
         <v>115</v>
@@ -2096,7 +2091,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C55" s="36" t="s">
         <v>114</v>
       </c>
@@ -2113,13 +2108,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B58" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +2143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
         <v>76</v>
       </c>
@@ -2162,17 +2157,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D61" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D62" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C63" s="5" t="s">
         <v>82</v>
       </c>
@@ -2183,17 +2178,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D64" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D65" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C66" s="5" t="s">
         <v>85</v>
       </c>
@@ -2204,17 +2199,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D67" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D68" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C69" s="5" t="s">
         <v>87</v>
       </c>
@@ -2225,17 +2220,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D70" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D71" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C72" s="5" t="s">
         <v>90</v>
       </c>
@@ -2246,17 +2241,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D73" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D74" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B75" s="5" t="s">
         <v>93</v>
       </c>
@@ -2270,7 +2265,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>98</v>
       </c>
@@ -2284,7 +2279,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>102</v>
       </c>
@@ -2295,17 +2290,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D78" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D79" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>161</v>
       </c>
@@ -2313,13 +2308,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B83" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +2343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>142</v>
       </c>
@@ -2362,12 +2357,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>146</v>
       </c>
@@ -2375,12 +2370,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>143</v>
       </c>
@@ -2391,17 +2386,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>150</v>
       </c>
@@ -2409,12 +2404,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>152</v>
       </c>
@@ -2422,7 +2417,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>156</v>
       </c>
@@ -2433,17 +2428,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>164</v>
       </c>
@@ -2460,12 +2455,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="43"/>
       <c r="C109" s="46" t="s">
         <v>163</v>
@@ -2473,7 +2468,7 @@
       <c r="D109" s="45"/>
       <c r="E109" s="44"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="47" t="s">
         <v>164</v>
       </c>
@@ -2487,7 +2482,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="43"/>
       <c r="C111" s="46"/>
       <c r="D111" s="45" t="s">
@@ -2497,7 +2492,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="43"/>
       <c r="C112" s="46"/>
       <c r="D112" s="45" t="s">
@@ -2507,13 +2502,13 @@
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="43"/>
       <c r="C113" s="36"/>
       <c r="D113" s="42"/>
       <c r="E113" s="41"/>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="43" t="s">
         <v>174</v>
       </c>
@@ -2523,23 +2518,23 @@
         <v>173</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="40" t="s">
         <v>203</v>
       </c>
       <c r="C118" s="41"/>
-      <c r="D118" s="57" t="s">
+      <c r="D118" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="E118" s="55"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="55"/>
-      <c r="H118" s="55"/>
-      <c r="I118" s="55"/>
-      <c r="J118" s="55"/>
-      <c r="K118" s="55"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="48"/>
+      <c r="J118" s="48"/>
+      <c r="K118" s="48"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" s="40" t="s">
         <v>201</v>
       </c>
@@ -2547,217 +2542,212 @@
       <c r="D119" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="E119" s="55"/>
-      <c r="F119" s="55"/>
-      <c r="G119" s="55"/>
-      <c r="H119" s="55"/>
-      <c r="I119" s="55"/>
-      <c r="J119" s="55"/>
-      <c r="K119" s="55"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="48"/>
+      <c r="J119" s="48"/>
+      <c r="K119" s="48"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="C120" s="56"/>
+      <c r="C120" s="49"/>
       <c r="D120" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="E120" s="55"/>
-      <c r="F120" s="55"/>
-      <c r="G120" s="55"/>
-      <c r="H120" s="55"/>
-      <c r="I120" s="55"/>
-      <c r="J120" s="55"/>
-      <c r="K120" s="55"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="48"/>
+      <c r="J120" s="48"/>
+      <c r="K120" s="48"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="C121" s="56"/>
+      <c r="C121" s="49"/>
       <c r="D121" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="E121" s="55"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55"/>
-      <c r="K121" s="55"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="48"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="C122" s="56"/>
+      <c r="C122" s="49"/>
       <c r="D122" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="E122" s="55"/>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="55"/>
-      <c r="J122" s="55"/>
-      <c r="K122" s="55"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="C123" s="56"/>
+      <c r="C123" s="49"/>
       <c r="D123" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="E123" s="55"/>
-      <c r="F123" s="55"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="55"/>
-      <c r="I123" s="55"/>
-      <c r="J123" s="55"/>
-      <c r="K123" s="55"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="48"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="C124" s="56"/>
+      <c r="C124" s="49"/>
       <c r="D124" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="E124" s="55"/>
-      <c r="F124" s="55"/>
-      <c r="G124" s="55"/>
-      <c r="H124" s="55"/>
-      <c r="I124" s="55"/>
-      <c r="J124" s="55"/>
-      <c r="K124" s="55"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="C125" s="56"/>
+      <c r="C125" s="49"/>
       <c r="D125" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="E125" s="55"/>
-      <c r="F125" s="55"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="55"/>
-      <c r="I125" s="55"/>
-      <c r="J125" s="55"/>
-      <c r="K125" s="55"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E125" s="48"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
+      <c r="K125" s="48"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="C126" s="56"/>
+      <c r="C126" s="49"/>
       <c r="D126" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E126" s="55"/>
-      <c r="F126" s="55"/>
-      <c r="G126" s="55"/>
-      <c r="H126" s="55"/>
-      <c r="I126" s="55"/>
-      <c r="J126" s="55"/>
-      <c r="K126" s="55"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B127" s="57" t="s">
+      <c r="E126" s="48"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
+      <c r="K126" s="48"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="C127" s="56"/>
-      <c r="D127" s="59" t="s">
+      <c r="C127" s="49"/>
+      <c r="D127" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="E127" s="55"/>
-      <c r="F127" s="55"/>
-      <c r="G127" s="55"/>
-      <c r="H127" s="55"/>
-      <c r="I127" s="55"/>
-      <c r="J127" s="55"/>
-      <c r="K127" s="55"/>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B128" s="57" t="s">
+      <c r="E127" s="48"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="48"/>
+      <c r="I127" s="48"/>
+      <c r="J127" s="48"/>
+      <c r="K127" s="48"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="C128" s="56"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="55"/>
-      <c r="F128" s="55"/>
-      <c r="G128" s="55"/>
-      <c r="H128" s="55"/>
-      <c r="I128" s="55"/>
-      <c r="J128" s="55"/>
-      <c r="K128" s="55"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B129" s="58" t="s">
+      <c r="C128" s="49"/>
+      <c r="D128" s="49"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="48"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="48"/>
+      <c r="I128" s="48"/>
+      <c r="J128" s="48"/>
+      <c r="K128" s="48"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C129" s="56"/>
-      <c r="D129" s="56"/>
-      <c r="E129" s="55"/>
-      <c r="F129" s="55"/>
-      <c r="G129" s="55"/>
-      <c r="H129" s="55"/>
-      <c r="I129" s="55"/>
-      <c r="J129" s="55"/>
-      <c r="K129" s="55"/>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B130" s="57" t="s">
+      <c r="C129" s="49"/>
+      <c r="D129" s="49"/>
+      <c r="E129" s="48"/>
+      <c r="F129" s="48"/>
+      <c r="G129" s="48"/>
+      <c r="H129" s="48"/>
+      <c r="I129" s="48"/>
+      <c r="J129" s="48"/>
+      <c r="K129" s="48"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="C130" s="56"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="55"/>
-      <c r="F130" s="55"/>
-      <c r="G130" s="55"/>
-      <c r="H130" s="55"/>
-      <c r="I130" s="55"/>
-      <c r="J130" s="55"/>
-      <c r="K130" s="55"/>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B131" s="55"/>
-      <c r="C131" s="56"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="55"/>
-      <c r="F131" s="55"/>
-      <c r="G131" s="55"/>
-      <c r="H131" s="55"/>
-      <c r="I131" s="55"/>
-      <c r="J131" s="55"/>
-      <c r="K131" s="55"/>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C130" s="49"/>
+      <c r="D130" s="49"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="48"/>
+      <c r="I130" s="48"/>
+      <c r="J130" s="48"/>
+      <c r="K130" s="48"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="48"/>
+      <c r="C131" s="49"/>
+      <c r="D131" s="49"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="48"/>
+      <c r="I131" s="48"/>
+      <c r="J131" s="48"/>
+      <c r="K131" s="48"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C132" s="56"/>
-      <c r="D132" s="56"/>
-      <c r="E132" s="55"/>
-      <c r="F132" s="55"/>
-      <c r="G132" s="55"/>
-      <c r="H132" s="55"/>
-      <c r="I132" s="55"/>
-      <c r="J132" s="55"/>
-      <c r="K132" s="55"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="49"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="48"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="48"/>
+      <c r="I132" s="48"/>
+      <c r="J132" s="48"/>
+      <c r="K132" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E35:E36"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E29:E30"/>
@@ -2765,6 +2755,11 @@
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E35:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
